--- a/Courses.xlsx
+++ b/Courses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Subject ID</t>
   </si>
@@ -23,19 +23,16 @@
     <t>Credits</t>
   </si>
   <si>
-    <t>adf</t>
+    <t>123</t>
   </si>
   <si>
-    <t>fd</t>
+    <t>3124</t>
   </si>
   <si>
-    <t>23</t>
+    <t>4</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Thinh</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -80,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,7 +102,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>12.0</v>
+        <v>234.0</v>
       </c>
     </row>
     <row r="3">
@@ -116,18 +113,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
